--- a/result/supertrend_NSDQ.xlsx
+++ b/result/supertrend_NSDQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -498,37 +498,37 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>3.9</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I2">
+        <v>160</v>
+      </c>
+      <c r="J2">
         <v>120</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="K2">
-        <v>8707.100000000069</v>
+        <v>13154.70000000004</v>
       </c>
       <c r="L2">
-        <v>5805</v>
+        <v>6180</v>
       </c>
       <c r="M2">
-        <v>-360.6000000000004</v>
+        <v>-401.8000000000011</v>
       </c>
       <c r="N2">
-        <v>8346.500000000069</v>
+        <v>12752.90000000004</v>
       </c>
       <c r="O2">
-        <v>0.3381567614125754</v>
+        <v>0.3368932038834951</v>
       </c>
       <c r="P2">
-        <v>95.21555116987497</v>
+        <v>145.483065058922</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -548,37 +548,237 @@
         <v>2023</v>
       </c>
       <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>3.9</v>
+      </c>
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>8707.100000000069</v>
+      </c>
+      <c r="L3">
+        <v>5805</v>
+      </c>
+      <c r="M3">
+        <v>-360.6000000000004</v>
+      </c>
+      <c r="N3">
+        <v>8346.500000000069</v>
+      </c>
+      <c r="O3">
+        <v>0.3381567614125754</v>
+      </c>
+      <c r="P3">
+        <v>95.21555116987497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4">
+        <v>160</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>7050.400000000171</v>
+      </c>
+      <c r="L4">
+        <v>11387</v>
+      </c>
+      <c r="M4">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N4">
+        <v>6582.30000000017</v>
+      </c>
+      <c r="O4">
+        <v>0.3434618424519189</v>
+      </c>
+      <c r="P4">
+        <v>75.0898367537865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>3718.90000000007</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>15578</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <v>-458.7999999999993</v>
       </c>
-      <c r="N3">
+      <c r="N5">
         <v>3260.10000000007</v>
       </c>
-      <c r="O3">
+      <c r="O5">
         <v>0.3732186416741559</v>
       </c>
-      <c r="P3">
+      <c r="P5">
         <v>37.19070489054256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>3.7</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>-1825.099999999856</v>
+      </c>
+      <c r="L6">
+        <v>6222</v>
+      </c>
+      <c r="M6">
+        <v>-338.7999999999993</v>
+      </c>
+      <c r="N6">
+        <v>-2163.899999999855</v>
+      </c>
+      <c r="O6">
+        <v>0.4082288653166184</v>
+      </c>
+      <c r="P6">
+        <v>-24.68542876373054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-84208.20000000112</v>
+      </c>
+      <c r="L7">
+        <v>36663</v>
+      </c>
+      <c r="M7">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N7">
+        <v>-84648.80000000112</v>
+      </c>
+      <c r="O7">
+        <v>0.3509805526007146</v>
+      </c>
+      <c r="P7">
+        <v>-965.6601147629008</v>
       </c>
     </row>
   </sheetData>

--- a/result/supertrend_NSDQ.xlsx
+++ b/result/supertrend_NSDQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -498,42 +498,42 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>3.600000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
         <v>160</v>
       </c>
       <c r="I2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="J2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2">
-        <v>13154.70000000004</v>
+        <v>30630.29999999995</v>
       </c>
       <c r="L2">
-        <v>6180</v>
+        <v>11107</v>
       </c>
       <c r="M2">
-        <v>-401.8000000000011</v>
+        <v>-468.1000000000004</v>
       </c>
       <c r="N2">
-        <v>12752.90000000004</v>
+        <v>30162.19999999995</v>
       </c>
       <c r="O2">
-        <v>0.3368932038834951</v>
+        <v>0.3252903574322499</v>
       </c>
       <c r="P2">
-        <v>145.483065058922</v>
+        <v>344.0856044444946</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -548,37 +548,37 @@
         <v>2023</v>
       </c>
       <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>80</v>
       </c>
-      <c r="G3">
-        <v>3.9</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>120</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
       <c r="K3">
-        <v>8707.100000000069</v>
+        <v>23648.70000000015</v>
       </c>
       <c r="L3">
-        <v>5805</v>
+        <v>14774</v>
       </c>
       <c r="M3">
-        <v>-360.6000000000004</v>
+        <v>-458.7999999999993</v>
       </c>
       <c r="N3">
-        <v>8346.500000000069</v>
+        <v>23189.90000000015</v>
       </c>
       <c r="O3">
-        <v>0.3381567614125754</v>
+        <v>0.3238797888181941</v>
       </c>
       <c r="P3">
-        <v>95.21555116987497</v>
+        <v>264.5467094080489</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -598,42 +598,42 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I4">
         <v>160</v>
       </c>
       <c r="J4">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K4">
-        <v>7050.400000000171</v>
+        <v>13154.70000000004</v>
       </c>
       <c r="L4">
-        <v>11387</v>
+        <v>6180</v>
       </c>
       <c r="M4">
-        <v>-468.1000000000004</v>
+        <v>-401.8000000000011</v>
       </c>
       <c r="N4">
-        <v>6582.30000000017</v>
+        <v>12752.90000000004</v>
       </c>
       <c r="O4">
-        <v>0.3434618424519189</v>
+        <v>0.3368932038834951</v>
       </c>
       <c r="P4">
-        <v>75.0898367537865</v>
+        <v>145.483065058922</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -651,39 +651,39 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H5">
         <v>200</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>3718.90000000007</v>
+        <v>12299.40000000016</v>
       </c>
       <c r="L5">
-        <v>15578</v>
+        <v>6359</v>
       </c>
       <c r="M5">
-        <v>-458.7999999999993</v>
+        <v>-403.4000000000015</v>
       </c>
       <c r="N5">
-        <v>3260.10000000007</v>
+        <v>11896.00000000016</v>
       </c>
       <c r="O5">
-        <v>0.3732186416741559</v>
+        <v>0.3695549614719296</v>
       </c>
       <c r="P5">
-        <v>37.19070489054256</v>
+        <v>135.7076854629891</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -698,87 +698,1187 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H6">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="J6">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>-1825.099999999856</v>
+        <v>10959.30000000001</v>
       </c>
       <c r="L6">
-        <v>6222</v>
+        <v>19592</v>
       </c>
       <c r="M6">
-        <v>-338.7999999999993</v>
+        <v>-451.8999999999996</v>
       </c>
       <c r="N6">
-        <v>-2163.899999999855</v>
+        <v>10507.40000000001</v>
       </c>
       <c r="O6">
-        <v>0.4082288653166184</v>
+        <v>0.3727031441404655</v>
       </c>
       <c r="P6">
-        <v>-24.68542876373054</v>
+        <v>119.8667564083552</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>3.3</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>10811.20000000001</v>
+      </c>
+      <c r="L7">
+        <v>6189</v>
+      </c>
+      <c r="M7">
+        <v>-403.4000000000015</v>
+      </c>
+      <c r="N7">
+        <v>10407.8</v>
+      </c>
+      <c r="O7">
+        <v>0.3297786395217321</v>
+      </c>
+      <c r="P7">
+        <v>118.7305353700133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>1.6</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8">
+        <v>160</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>9237.000000000082</v>
+      </c>
+      <c r="L8">
+        <v>19874</v>
+      </c>
+      <c r="M8">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N8">
+        <v>8768.900000000081</v>
+      </c>
+      <c r="O8">
+        <v>0.3713897554593942</v>
+      </c>
+      <c r="P8">
+        <v>100.0342235252522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>9056.500000000016</v>
+      </c>
+      <c r="L9">
+        <v>36049</v>
+      </c>
+      <c r="M9">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N9">
+        <v>8615.900000000016</v>
+      </c>
+      <c r="O9">
+        <v>0.3423950733723543</v>
+      </c>
+      <c r="P9">
+        <v>98.2888237374373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3.9</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>8707.100000000069</v>
+      </c>
+      <c r="L10">
+        <v>5805</v>
+      </c>
+      <c r="M10">
+        <v>-360.6000000000004</v>
+      </c>
+      <c r="N10">
+        <v>8346.500000000069</v>
+      </c>
+      <c r="O10">
+        <v>0.3381567614125754</v>
+      </c>
+      <c r="P10">
+        <v>95.21555116987497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>160</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>8156.700000000059</v>
+      </c>
+      <c r="L11">
+        <v>8814</v>
+      </c>
+      <c r="M11">
+        <v>-391</v>
+      </c>
+      <c r="N11">
+        <v>7765.700000000059</v>
+      </c>
+      <c r="O11">
+        <v>0.4076469253460404</v>
+      </c>
+      <c r="P11">
+        <v>88.58987668123135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>1.1</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>7623.500000000244</v>
+      </c>
+      <c r="L12">
+        <v>24401</v>
+      </c>
+      <c r="M12">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N12">
+        <v>7155.400000000243</v>
+      </c>
+      <c r="O12">
+        <v>0.314905126839064</v>
+      </c>
+      <c r="P12">
+        <v>81.62767086095259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>2.2</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>7429.700000000127</v>
+      </c>
+      <c r="L13">
+        <v>13320</v>
+      </c>
+      <c r="M13">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N13">
+        <v>6961.600000000127</v>
+      </c>
+      <c r="O13">
+        <v>0.3894144144144144</v>
+      </c>
+      <c r="P13">
+        <v>79.41683112972002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <v>120</v>
+      </c>
+      <c r="I14">
+        <v>160</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>7050.400000000171</v>
+      </c>
+      <c r="L14">
+        <v>11387</v>
+      </c>
+      <c r="M14">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N14">
+        <v>6582.30000000017</v>
+      </c>
+      <c r="O14">
+        <v>0.3434618424519189</v>
+      </c>
+      <c r="P14">
+        <v>75.0898367537865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>2020</v>
-      </c>
-      <c r="E7">
-        <v>2023</v>
-      </c>
-      <c r="F7">
+      <c r="H15">
+        <v>180</v>
+      </c>
+      <c r="I15">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>5905.900000000338</v>
+      </c>
+      <c r="L15">
+        <v>25357</v>
+      </c>
+      <c r="M15">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N15">
+        <v>5465.300000000338</v>
+      </c>
+      <c r="O15">
+        <v>0.3087904720589975</v>
+      </c>
+      <c r="P15">
+        <v>62.34727751857012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H16">
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>5274.100000000168</v>
+      </c>
+      <c r="L16">
+        <v>10846</v>
+      </c>
+      <c r="M16">
+        <v>-499.1000000000004</v>
+      </c>
+      <c r="N16">
+        <v>4775.000000000167</v>
+      </c>
+      <c r="O16">
+        <v>0.3947077263507284</v>
+      </c>
+      <c r="P16">
+        <v>54.47244435825377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>2.8</v>
+      </c>
+      <c r="H17">
+        <v>140</v>
+      </c>
+      <c r="I17">
+        <v>120</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>4912.300000000119</v>
+      </c>
+      <c r="L17">
+        <v>9784</v>
+      </c>
+      <c r="M17">
+        <v>-347.3999999999996</v>
+      </c>
+      <c r="N17">
+        <v>4564.90000000012</v>
+      </c>
+      <c r="O17">
+        <v>0.402187244480785</v>
+      </c>
+      <c r="P17">
+        <v>52.07565680649014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>3.8</v>
+      </c>
+      <c r="H18">
+        <v>180</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>3639.70000000012</v>
+      </c>
+      <c r="L18">
+        <v>6114</v>
+      </c>
+      <c r="M18">
+        <v>-247.5999999999995</v>
+      </c>
+      <c r="N18">
+        <v>3392.10000000012</v>
+      </c>
+      <c r="O18">
+        <v>0.4108603205757279</v>
+      </c>
+      <c r="P18">
+        <v>38.69654000159846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3718.90000000007</v>
+      </c>
+      <c r="L19">
+        <v>15578</v>
+      </c>
+      <c r="M19">
+        <v>-458.7999999999993</v>
+      </c>
+      <c r="N19">
+        <v>3260.10000000007</v>
+      </c>
+      <c r="O19">
+        <v>0.3732186416741559</v>
+      </c>
+      <c r="P19">
+        <v>37.19070489054256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <v>140</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>3262.900000000158</v>
+      </c>
+      <c r="L20">
+        <v>11838</v>
+      </c>
+      <c r="M20">
+        <v>-494.6000000000004</v>
+      </c>
+      <c r="N20">
+        <v>2768.300000000158</v>
+      </c>
+      <c r="O20">
+        <v>0.3945767866193614</v>
+      </c>
+      <c r="P20">
+        <v>31.58032831768738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>1.7</v>
+      </c>
+      <c r="H21">
+        <v>160</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-983.7000000000498</v>
+      </c>
+      <c r="L21">
+        <v>18628</v>
+      </c>
+      <c r="M21">
+        <v>-458.7999999999993</v>
+      </c>
+      <c r="N21">
+        <v>-1442.500000000049</v>
+      </c>
+      <c r="O21">
+        <v>0.3728795361820915</v>
+      </c>
+      <c r="P21">
+        <v>-16.45581172498031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>3.7</v>
+      </c>
+      <c r="H22">
+        <v>160</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>-1825.099999999856</v>
+      </c>
+      <c r="L22">
+        <v>6222</v>
+      </c>
+      <c r="M22">
+        <v>-338.7999999999993</v>
+      </c>
+      <c r="N22">
+        <v>-2163.899999999855</v>
+      </c>
+      <c r="O22">
+        <v>0.4082288653166184</v>
+      </c>
+      <c r="P22">
+        <v>-24.68542876373054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>0.7</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-18761.29999999958</v>
+      </c>
+      <c r="L23">
+        <v>46134</v>
+      </c>
+      <c r="M23">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N23">
+        <v>-19201.89999999958</v>
+      </c>
+      <c r="O23">
+        <v>0.3815624051675554</v>
+      </c>
+      <c r="P23">
+        <v>-219.0522365073704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>3.4</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>200</v>
+      </c>
+      <c r="J24">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>-28948.4999999999</v>
+      </c>
+      <c r="L24">
+        <v>6791</v>
+      </c>
+      <c r="M24">
+        <v>-390.7000000000007</v>
+      </c>
+      <c r="N24">
+        <v>-29339.1999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.2148431747901635</v>
+      </c>
+      <c r="P24">
+        <v>-334.6969506838989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>-29366.79999999985</v>
+      </c>
+      <c r="L25">
+        <v>50404</v>
+      </c>
+      <c r="M25">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N25">
+        <v>-29807.39999999985</v>
+      </c>
+      <c r="O25">
+        <v>0.2806523291802238</v>
+      </c>
+      <c r="P25">
+        <v>-340.0381021914447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>160</v>
+      </c>
+      <c r="J26">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>-35524.29999999974</v>
+      </c>
+      <c r="L26">
+        <v>41673</v>
+      </c>
+      <c r="M26">
+        <v>-463.7999999999993</v>
+      </c>
+      <c r="N26">
+        <v>-35988.09999999974</v>
+      </c>
+      <c r="O26">
+        <v>0.2664554987641878</v>
+      </c>
+      <c r="P26">
+        <v>-410.5465496982596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>1.9</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>160</v>
+      </c>
+      <c r="J27">
+        <v>120</v>
+      </c>
+      <c r="K27">
+        <v>-62329.30000000013</v>
+      </c>
+      <c r="L27">
+        <v>15027</v>
+      </c>
+      <c r="M27">
+        <v>-345.3000000000011</v>
+      </c>
+      <c r="N27">
+        <v>-62674.60000000014</v>
+      </c>
+      <c r="O27">
+        <v>0.132561389498902</v>
+      </c>
+      <c r="P27">
+        <v>-714.9819185708271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G28">
         <v>0.9000000000000001</v>
       </c>
-      <c r="H7">
+      <c r="H28">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J28">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K28">
         <v>-84208.20000000112</v>
       </c>
-      <c r="L7">
+      <c r="L28">
         <v>36663</v>
       </c>
-      <c r="M7">
+      <c r="M28">
         <v>-440.6000000000004</v>
       </c>
-      <c r="N7">
+      <c r="N28">
         <v>-84648.80000000112</v>
       </c>
-      <c r="O7">
+      <c r="O28">
         <v>0.3509805526007146</v>
       </c>
-      <c r="P7">
+      <c r="P28">
         <v>-965.6601147629008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>90</v>
+      </c>
+      <c r="G29">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-112842.2999999999</v>
+      </c>
+      <c r="L29">
+        <v>50440</v>
+      </c>
+      <c r="M29">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N29">
+        <v>-113282.8999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.3596352101506741</v>
+      </c>
+      <c r="P29">
+        <v>-1292.313396228566</v>
       </c>
     </row>
   </sheetData>
